--- a/individual_results/avey/246.xlsx
+++ b/individual_results/avey/246.xlsx
@@ -525,10 +525,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0.125</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -571,10 +571,10 @@
         <v>0.5</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N3" t="n">
         <v>0.5</v>
@@ -610,18 +610,18 @@
       <c r="G4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3636363636363636</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>0.2</v>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="N4" t="n">
         <v>0.6666666666666666</v>
       </c>
@@ -644,18 +644,18 @@
       <c r="G5" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.5882352941176471</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>0.3125</v>
       </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
       <c r="N5" t="n">
         <v>0.5555555555555556</v>
       </c>
@@ -685,10 +685,10 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="H6" t="n">
-        <v>0.17376534287144</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4427225697287983</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="N6" t="n">
         <v>0.8262346571285599</v>
@@ -743,10 +743,10 @@
         <v>1</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
@@ -789,10 +789,10 @@
         <v>1</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>1</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
@@ -861,15 +861,17 @@
         <v>1</v>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
       <c r="N10" t="n">
         <v>1</v>
       </c>
